--- a/gender.xlsx
+++ b/gender.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Kibet\Desktop\Capstone Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{193C3576-A688-4357-B50D-EF6C8C298226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31374133-50D4-4ED6-B75A-9C39B5F1B953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{44D9A7CB-C730-4334-ADF9-20B0DC67D53A}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>County</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>Nairobi City</t>
+  </si>
+  <si>
+    <t>Kenya</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1041,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99888C1F-6B7A-42C4-8F24-B2993987FAA9}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1061,7 +1066,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="B2">
         <v>23548056</v>

--- a/gender.xlsx
+++ b/gender.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Kibet\Desktop\Capstone Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31374133-50D4-4ED6-B75A-9C39B5F1B953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E5B572-6F6A-4A94-8D56-3560ADD3909F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{44D9A7CB-C730-4334-ADF9-20B0DC67D53A}"/>
   </bookViews>
@@ -1042,7 +1042,7 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
